--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/122.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/122.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2111639994943297</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.604431417612739</v>
+        <v>-1.60529161906253</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04289584196308677</v>
+        <v>-0.04279195670108092</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1462915840222077</v>
+        <v>-0.1480985579734608</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2083783487629522</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.586168073748287</v>
+        <v>-1.58756344169932</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07344755310753312</v>
+        <v>-0.07288248024298617</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1201124979967346</v>
+        <v>-0.1222437198869757</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2146277052743586</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.634887113590786</v>
+        <v>-1.636116422524522</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.121313474586287</v>
+        <v>-0.1206964590907372</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1156013591950868</v>
+        <v>-0.1175311066378015</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2302200691007631</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.729018966111491</v>
+        <v>-1.730012172177032</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1480969839543395</v>
+        <v>-0.1477491257285321</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1264070004628161</v>
+        <v>-0.1284862797220543</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2454735299919389</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760201071914019</v>
+        <v>-1.760008254571659</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.109116400415328</v>
+        <v>-0.10921556361997</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1165788250694146</v>
+        <v>-0.1184849622253097</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2475705026363067</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.620779967216128</v>
+        <v>-1.619926848852383</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04463828113036663</v>
+        <v>-0.04470124189521866</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1175358286951654</v>
+        <v>-0.1191995669063802</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2285061858133303</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.33194509742877</v>
+        <v>-1.332178839268283</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.009364512622018217</v>
+        <v>-0.008357140384385776</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1123793420537843</v>
+        <v>-0.114565654613271</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1861526592724033</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9107517467407978</v>
+        <v>-0.9120204061525663</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.009277941570346679</v>
+        <v>-0.006493501744765762</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07222611426940378</v>
+        <v>-0.07440298271416264</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1213739939268588</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3838944924399104</v>
+        <v>-0.3869890140323875</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05604677172155401</v>
+        <v>-0.05210227980357449</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02498822642004884</v>
+        <v>-0.02696362041728121</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.03607236605382025</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1808320879003504</v>
+        <v>0.1758959639359514</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1155620087170543</v>
+        <v>-0.1096499928974489</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0574919495552285</v>
+        <v>0.05519230761900819</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.06463263109816944</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8603093842407952</v>
+        <v>0.8536922078548471</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2446315766637107</v>
+        <v>-0.2372824813863578</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1373088851772651</v>
+        <v>0.1349525785526779</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1731487293200654</v>
       </c>
       <c r="E13" t="n">
-        <v>1.553913502194914</v>
+        <v>1.545467315590014</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4496050686968502</v>
+        <v>-0.4405780690361907</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2559647426173961</v>
+        <v>0.253707599197451</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2766984715823995</v>
       </c>
       <c r="E14" t="n">
-        <v>2.277863134788588</v>
+        <v>2.267717007532684</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6806301512066374</v>
+        <v>-0.6706603140923187</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3767990425214073</v>
+        <v>0.3741783006844417</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3634087916356962</v>
       </c>
       <c r="E15" t="n">
-        <v>3.010406911784564</v>
+        <v>2.998883517797522</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9285066824290696</v>
+        <v>-0.9174177177195063</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4889006843404423</v>
+        <v>0.4862862385799618</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4378023430345729</v>
       </c>
       <c r="E16" t="n">
-        <v>3.630981264567695</v>
+        <v>3.619564903880901</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.212850088653796</v>
+        <v>-1.199224592130257</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6346989275082824</v>
+        <v>0.6307056409975426</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5125174909563061</v>
       </c>
       <c r="E17" t="n">
-        <v>4.22513255836155</v>
+        <v>4.212977982706867</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.4675413356619</v>
+        <v>-1.452097060043698</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7843519435041879</v>
+        <v>0.7800532972839157</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5955291196310399</v>
       </c>
       <c r="E18" t="n">
-        <v>4.753618922452985</v>
+        <v>4.741812205024108</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.70879518143146</v>
+        <v>-1.692723659193419</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9211892958144632</v>
+        <v>0.9160579934790229</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6853659502009156</v>
       </c>
       <c r="E19" t="n">
-        <v>5.183670852755637</v>
+        <v>5.171650068726263</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.99817702286347</v>
+        <v>-1.980373292582438</v>
       </c>
       <c r="G19" t="n">
-        <v>1.066490148939972</v>
+        <v>1.061218758902736</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7747103450357873</v>
       </c>
       <c r="E20" t="n">
-        <v>5.52131684250409</v>
+        <v>5.509059955606522</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.251988393182766</v>
+        <v>-2.233579452549594</v>
       </c>
       <c r="G20" t="n">
-        <v>1.217329975353338</v>
+        <v>1.211890165270123</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8572975688015847</v>
       </c>
       <c r="E21" t="n">
-        <v>5.806017551069352</v>
+        <v>5.793842513166092</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.474421692318934</v>
+        <v>-2.455222594086869</v>
       </c>
       <c r="G21" t="n">
-        <v>1.354275934982984</v>
+        <v>1.349183983125576</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9267358436228987</v>
       </c>
       <c r="E22" t="n">
-        <v>6.011834717351508</v>
+        <v>6.000271972886434</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.679919332719466</v>
+        <v>-2.660909903791518</v>
       </c>
       <c r="G22" t="n">
-        <v>1.469859307098336</v>
+        <v>1.464484031799094</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9776432431731992</v>
       </c>
       <c r="E23" t="n">
-        <v>6.151796497617566</v>
+        <v>6.139328692157743</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.800078378420439</v>
+        <v>-2.781681242930677</v>
       </c>
       <c r="G23" t="n">
-        <v>1.568994179396096</v>
+        <v>1.563559091370244</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.006132858018031</v>
       </c>
       <c r="E24" t="n">
-        <v>6.25623738837323</v>
+        <v>6.243445334974419</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.873022359549317</v>
+        <v>-2.855575144599259</v>
       </c>
       <c r="G24" t="n">
-        <v>1.616644460255231</v>
+        <v>1.611352607969418</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.00881883580282</v>
       </c>
       <c r="E25" t="n">
-        <v>6.273937233392257</v>
+        <v>6.261448965683857</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.951162964807168</v>
+        <v>-2.933629178805439</v>
       </c>
       <c r="G25" t="n">
-        <v>1.666973721658821</v>
+        <v>1.662405918168806</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9858723348710965</v>
       </c>
       <c r="E26" t="n">
-        <v>6.262369766869818</v>
+        <v>6.250432405853873</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.012215231474618</v>
+        <v>-2.994890790016022</v>
       </c>
       <c r="G26" t="n">
-        <v>1.685518814945985</v>
+        <v>1.680965177628063</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9415014085322089</v>
       </c>
       <c r="E27" t="n">
-        <v>6.166104331430189</v>
+        <v>6.154719451125821</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.026096506105369</v>
+        <v>-3.009123857920384</v>
       </c>
       <c r="G27" t="n">
-        <v>1.691962849228591</v>
+        <v>1.687524115306523</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.882110857520382</v>
       </c>
       <c r="E28" t="n">
-        <v>6.001293511296158</v>
+        <v>5.99082785815863</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.036060047143203</v>
+        <v>-3.019020503145562</v>
       </c>
       <c r="G28" t="n">
-        <v>1.677543260058355</v>
+        <v>1.673424052017911</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8151126259288085</v>
       </c>
       <c r="E29" t="n">
-        <v>5.830345590608175</v>
+        <v>5.820638614687114</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.992767438221388</v>
+        <v>-2.976513329765276</v>
       </c>
       <c r="G29" t="n">
-        <v>1.64054279257394</v>
+        <v>1.636494415393954</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.746256669972128</v>
       </c>
       <c r="E30" t="n">
-        <v>5.63686086414141</v>
+        <v>5.628021172756185</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.963737016557678</v>
+        <v>-2.94816445838109</v>
       </c>
       <c r="G30" t="n">
-        <v>1.570577642632124</v>
+        <v>1.566951102576647</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6794805162841899</v>
       </c>
       <c r="E31" t="n">
-        <v>5.397003960342005</v>
+        <v>5.388921372154125</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.862333195696563</v>
+        <v>-2.848008834683167</v>
       </c>
       <c r="G31" t="n">
-        <v>1.4960525592959</v>
+        <v>1.492498424120003</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6157845057664665</v>
       </c>
       <c r="E32" t="n">
-        <v>5.165432693197126</v>
+        <v>5.157233627594271</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.800778029919857</v>
+        <v>-2.78630807213774</v>
       </c>
       <c r="G32" t="n">
-        <v>1.422604105038646</v>
+        <v>1.419116078665844</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.5536113392399831</v>
       </c>
       <c r="E33" t="n">
-        <v>4.870713352924785</v>
+        <v>4.862920384255226</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.676332143142022</v>
+        <v>-2.662794004679715</v>
       </c>
       <c r="G33" t="n">
-        <v>1.348727517580399</v>
+        <v>1.34566762440859</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.4909780975777953</v>
       </c>
       <c r="E34" t="n">
-        <v>4.609980233519569</v>
+        <v>4.603336298808559</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.599687643058967</v>
+        <v>-2.586347831005944</v>
       </c>
       <c r="G34" t="n">
-        <v>1.247930481090545</v>
+        <v>1.244946140836559</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.4260237657680216</v>
       </c>
       <c r="E35" t="n">
-        <v>4.295307052846499</v>
+        <v>4.290013626541565</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.525892117585466</v>
+        <v>-2.513367647437276</v>
       </c>
       <c r="G35" t="n">
-        <v>1.156273773638085</v>
+        <v>1.153352394148951</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.3590074588259198</v>
       </c>
       <c r="E36" t="n">
-        <v>3.955651040680145</v>
+        <v>3.950744823079051</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.429643996356172</v>
+        <v>-2.417617703259874</v>
       </c>
       <c r="G36" t="n">
-        <v>1.076135738115303</v>
+        <v>1.074146177945979</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.2915088521219538</v>
       </c>
       <c r="E37" t="n">
-        <v>3.672050571480672</v>
+        <v>3.66747332387593</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.36093019161579</v>
+        <v>-2.349273793012998</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9895741305584929</v>
+        <v>0.9873453194827311</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.2253181819326812</v>
       </c>
       <c r="E38" t="n">
-        <v>3.371288571801658</v>
+        <v>3.368343582025705</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.29284756854305</v>
+        <v>-2.281299777259628</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8999888322696642</v>
+        <v>0.8982243568346862</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.1625723619802409</v>
       </c>
       <c r="E39" t="n">
-        <v>3.05301088734081</v>
+        <v>3.050892257603539</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.2149989438322</v>
+        <v>-2.204290891749991</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8116296948763289</v>
+        <v>0.8102193737436434</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.1042272577924184</v>
       </c>
       <c r="E40" t="n">
-        <v>2.773380094365258</v>
+        <v>2.770524823679218</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.141232537712443</v>
+        <v>-2.130272642570827</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7446850876282892</v>
+        <v>0.7435596639565593</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.05147406812441783</v>
       </c>
       <c r="E41" t="n">
-        <v>2.476397314596487</v>
+        <v>2.474048878067506</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.080900384792988</v>
+        <v>-2.07076212763269</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6863299027251876</v>
+        <v>0.6856530745030283</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.004384962730627544</v>
       </c>
       <c r="E42" t="n">
-        <v>2.19996807651366</v>
+        <v>2.198434981889513</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.994902276081604</v>
+        <v>-1.985403857694115</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6144145430920804</v>
+        <v>0.6142382529504947</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.03776535649252034</v>
       </c>
       <c r="E43" t="n">
-        <v>1.94709718261934</v>
+        <v>1.94572936000293</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.932024934243005</v>
+        <v>-1.922390363201524</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5441692177466734</v>
+        <v>0.5436057189012478</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.07540389231601005</v>
       </c>
       <c r="E44" t="n">
-        <v>1.745221360216921</v>
+        <v>1.743565492101312</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.880338868356854</v>
+        <v>-1.871174142023081</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4776621878143554</v>
+        <v>0.4770860968159594</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.1095421651656452</v>
       </c>
       <c r="E45" t="n">
-        <v>1.532454899514221</v>
+        <v>1.531804829617124</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.79516318463635</v>
+        <v>-1.786149564138221</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4267426692402781</v>
+        <v>0.4261996326434294</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.1408066632599032</v>
       </c>
       <c r="E46" t="n">
-        <v>1.336484796854922</v>
+        <v>1.335403445718588</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.735647160631289</v>
+        <v>-1.726993990511938</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3748787391934205</v>
+        <v>0.3749841984745476</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.1695006639436213</v>
       </c>
       <c r="E47" t="n">
-        <v>1.181919267181437</v>
+        <v>1.181319565896221</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.704264367390796</v>
+        <v>-1.695838643034473</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3271277211105215</v>
+        <v>0.3265894065710367</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1956769153413447</v>
       </c>
       <c r="E48" t="n">
-        <v>1.005145901725521</v>
+        <v>1.005071922826819</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.641685302175683</v>
+        <v>-1.633170645739007</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2561268665868901</v>
+        <v>0.2558356730494495</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2190256465481104</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8588172141138022</v>
+        <v>0.8586944406223407</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.591431593689916</v>
+        <v>-1.582864207612677</v>
       </c>
       <c r="G49" t="n">
-        <v>0.221529926300701</v>
+        <v>0.2213567841973579</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.23949522972945</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7592479125385633</v>
+        <v>0.7591723596207408</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.54058526700498</v>
+        <v>-1.531555119306078</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1796405554255258</v>
+        <v>0.179390286385239</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2574052896569259</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6438014800867643</v>
+        <v>0.6438455526221607</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.503287309906639</v>
+        <v>-1.494082446085272</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1455913737935493</v>
+        <v>0.14526555183544</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2729320756010615</v>
       </c>
       <c r="E52" t="n">
-        <v>0.536535225008365</v>
+        <v>0.5360000585071227</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.459399721756972</v>
+        <v>-1.450548225228338</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1061700649005736</v>
+        <v>0.1061873791109079</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2869878833923135</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4681629824173058</v>
+        <v>0.4669242293688421</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.419603009303566</v>
+        <v>-1.411414174824999</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07428515956038553</v>
+        <v>0.07407266697900994</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3001226372842842</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3768620032862594</v>
+        <v>0.3746363402487402</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.367913008369612</v>
+        <v>-1.358905683947969</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04343438478289206</v>
+        <v>0.04352095583456359</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3130956297521766</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2868942183509546</v>
+        <v>0.2838626575233295</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.336328740681593</v>
+        <v>-1.327399330206454</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00882170430548993</v>
+        <v>0.009270299755060626</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.326662705189085</v>
       </c>
       <c r="E56" t="n">
-        <v>0.223022096427694</v>
+        <v>0.2195561063225899</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.316282820162268</v>
+        <v>-1.30745178588221</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008324085982838462</v>
+        <v>-0.008276865409199441</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3406258513301867</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1471779850678204</v>
+        <v>0.1436002396051039</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.323254150850508</v>
+        <v>-1.314475059201454</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04425107242652666</v>
+        <v>-0.04414561314539951</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3555867006003001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08388195414295582</v>
+        <v>0.08019560136086962</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.303370354300678</v>
+        <v>-1.29507212549318</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07437937242734313</v>
+        <v>-0.07444862926868036</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3717137751797362</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04676658326268561</v>
+        <v>0.04256237818969148</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.31375573246302</v>
+        <v>-1.305381163728139</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09937637009271935</v>
+        <v>-0.0992567446395005</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3890142331216896</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.006819323702875004</v>
+        <v>-0.01195692211480045</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.317745083925956</v>
+        <v>-1.309867118223846</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.104054354921225</v>
+        <v>-0.1041975906612634</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4076787375345156</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.04528048093185731</v>
+        <v>-0.05094065369205458</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.297754254075877</v>
+        <v>-1.290044708419746</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1352057673508869</v>
+        <v>-0.1352954864408011</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4272101689643274</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.09921424612322538</v>
+        <v>-0.1048980291702422</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.322458484184691</v>
+        <v>-1.314528575851578</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1428114277450118</v>
+        <v>-0.1431136394163016</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4481093189466511</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1425155121502073</v>
+        <v>-0.1487879783485905</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.362346489747132</v>
+        <v>-1.354122239838336</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1617248415065609</v>
+        <v>-0.1618334488259306</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4700766516558366</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1970237943208501</v>
+        <v>-0.2043162249098362</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.403786478163176</v>
+        <v>-1.395196268808678</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1774367003753844</v>
+        <v>-0.1777924286967983</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.493297403388429</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2499769455996479</v>
+        <v>-0.2580186092903731</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.436642553301207</v>
+        <v>-1.428121600788046</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2028555351652692</v>
+        <v>-0.2031498767409524</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5180411704496174</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3167610028973147</v>
+        <v>-0.3246751710392146</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.478690113098073</v>
+        <v>-1.47063979230218</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2087974573481793</v>
+        <v>-0.2092869772949038</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5436080412352126</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3040020039000514</v>
+        <v>-0.3127110516982081</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.525028449019604</v>
+        <v>-1.517127660040235</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2418723211440706</v>
+        <v>-0.2424074876453128</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.570082076358565</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3313647523047425</v>
+        <v>-0.3391073523624206</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.555916213246448</v>
+        <v>-1.547181981142351</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2521821463885901</v>
+        <v>-0.2526669442779507</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5968497706540091</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3594562715625959</v>
+        <v>-0.3670619319567208</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.615364554429293</v>
+        <v>-1.606217142305854</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2582972106748433</v>
+        <v>-0.2583223949807841</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6235820910356251</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3859218290681456</v>
+        <v>-0.3934314742958712</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.633353231957078</v>
+        <v>-1.624518262629218</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2686574045312444</v>
+        <v>-0.2686558305121231</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6499160578095332</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3927357578442564</v>
+        <v>-0.3996126473852191</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.671737262249117</v>
+        <v>-1.662204215440959</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2872811987744742</v>
+        <v>-0.287128518919708</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6746015444590892</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.390969708390157</v>
+        <v>-0.3975506823363151</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.704466628847883</v>
+        <v>-1.694646323550088</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.284861931385035</v>
+        <v>-0.2846777711478428</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6974741853468505</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.351814408728681</v>
+        <v>-0.3578066995234728</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.729159840822848</v>
+        <v>-1.719914839513888</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2872135159522582</v>
+        <v>-0.2866248328008918</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7176018801476097</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3102445637351299</v>
+        <v>-0.3163501839066553</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.76161847613275</v>
+        <v>-1.752212924873418</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2919607576221011</v>
+        <v>-0.2913720744707347</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7344897788714618</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2470209376898452</v>
+        <v>-0.2524056571038148</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.78088368316791</v>
+        <v>-1.771709512719409</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2957620138000422</v>
+        <v>-0.2947058469696495</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7474122607681116</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1394335827107006</v>
+        <v>-0.1446593261934188</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.788986733604366</v>
+        <v>-1.779931401599523</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2788397342269386</v>
+        <v>-0.2774986699355904</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7551217480770738</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.0530246550086567</v>
+        <v>-0.05762236486197601</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.775275453038715</v>
+        <v>-1.76622877813904</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2653960369119094</v>
+        <v>-0.263922755014372</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7575955816639292</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08211590468885646</v>
+        <v>0.07791012559674101</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.779145179048433</v>
+        <v>-1.770169335009216</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.237770427313961</v>
+        <v>-0.2357619789151813</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7540706420313757</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2097562632733718</v>
+        <v>0.2055457621238925</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.80782144640985</v>
+        <v>-1.799102167487405</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2211676736224814</v>
+        <v>-0.2193134790975892</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7443481997506639</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3563792924607735</v>
+        <v>0.3518791717929748</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.764569761985189</v>
+        <v>-1.756903501854894</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1949696993675527</v>
+        <v>-0.1929266225481044</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7285085732033735</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4862579062357785</v>
+        <v>0.4822048069984292</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.742838066986951</v>
+        <v>-1.735943076226093</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1663367175319719</v>
+        <v>-0.1644793749688371</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.7060142459456172</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6650098137271697</v>
+        <v>0.660079985839256</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.703321529937136</v>
+        <v>-1.6971301257235</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1403559579157828</v>
+        <v>-0.1386497211882928</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6773566180578995</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8381314548216685</v>
+        <v>0.8338800291750353</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.633870297238426</v>
+        <v>-1.628718532654408</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1217353117107956</v>
+        <v>-0.1192656757094748</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.6424364864422811</v>
       </c>
       <c r="E84" t="n">
-        <v>1.019987328020265</v>
+        <v>1.014997687405742</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.554060444702435</v>
+        <v>-1.550166321396337</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1058597548533569</v>
+        <v>-0.1032279948825421</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.6014129220185597</v>
       </c>
       <c r="E85" t="n">
-        <v>1.167142375670666</v>
+        <v>1.161600254344566</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.449138691105213</v>
+        <v>-1.445249289856479</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08594526493066058</v>
+        <v>-0.08275000611442018</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5547100355935641</v>
       </c>
       <c r="E86" t="n">
-        <v>1.328726456606031</v>
+        <v>1.323670707188413</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.332170182163116</v>
+        <v>-1.329020569901394</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05584214923578493</v>
+        <v>-0.05262328013272502</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5026446818546797</v>
       </c>
       <c r="E87" t="n">
-        <v>1.469475246432738</v>
+        <v>1.463615173244136</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.201908294732075</v>
+        <v>-1.19937333693722</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03195326103180439</v>
+        <v>-0.02852976944297539</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4466519610469409</v>
       </c>
       <c r="E88" t="n">
-        <v>1.55985070232046</v>
+        <v>1.555138089071286</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.055984917044091</v>
+        <v>-1.054275532278359</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01784375362846502</v>
+        <v>-0.01455720170318919</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3875938925016278</v>
       </c>
       <c r="E89" t="n">
-        <v>1.664995179623346</v>
+        <v>1.659906375804181</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9102024140674639</v>
+        <v>-0.9097113201016181</v>
       </c>
       <c r="G89" t="n">
-        <v>0.006292255577559725</v>
+        <v>0.009723617261995224</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3275823124093422</v>
       </c>
       <c r="E90" t="n">
-        <v>1.708850500381025</v>
+        <v>1.704024557755118</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7189323325043683</v>
+        <v>-0.7198059131166902</v>
       </c>
       <c r="G90" t="n">
-        <v>0.007614431639452302</v>
+        <v>0.01146290839103248</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2699531464885341</v>
       </c>
       <c r="E91" t="n">
-        <v>1.726300076359765</v>
+        <v>1.722753811279474</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5339583274264753</v>
+        <v>-0.5350538447349006</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01050882452320382</v>
+        <v>-0.007173478005167659</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2188763562054089</v>
       </c>
       <c r="E92" t="n">
-        <v>1.698776778004701</v>
+        <v>1.69567753435486</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3699172026427603</v>
+        <v>-0.3715179800891231</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01378750635287315</v>
+        <v>-0.01036401476404415</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1794705489121591</v>
       </c>
       <c r="E93" t="n">
-        <v>1.655348016428894</v>
+        <v>1.652903564733514</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2174183600755431</v>
+        <v>-0.2192001497208555</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0290004011602443</v>
+        <v>-0.02618605497135867</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1547621636514108</v>
       </c>
       <c r="E94" t="n">
-        <v>1.556875806181202</v>
+        <v>1.55515540328162</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07894560189823642</v>
+        <v>-0.08119802326081771</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03525240511005063</v>
+        <v>-0.0322176962441829</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1458013325314774</v>
       </c>
       <c r="E95" t="n">
-        <v>1.487005097386664</v>
+        <v>1.485098960230769</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02772409993318989</v>
+        <v>0.02553778737370323</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07066626132019481</v>
+        <v>-0.06805338957883567</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1501349970635192</v>
       </c>
       <c r="E96" t="n">
-        <v>1.402820258703018</v>
+        <v>1.40123679546699</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1097100339043788</v>
+        <v>0.1071695670425995</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09974783860534631</v>
+        <v>-0.09719320557147529</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1617088929782031</v>
       </c>
       <c r="E97" t="n">
-        <v>1.322704259447934</v>
+        <v>1.321456062284743</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1728581070318411</v>
+        <v>0.1703664347628221</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1194529839849096</v>
+        <v>-0.1166118794709619</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1751081036209798</v>
       </c>
       <c r="E98" t="n">
-        <v>1.228108858296006</v>
+        <v>1.226490766639309</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2058621399672739</v>
+        <v>0.2030824221990569</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1400521722253717</v>
+        <v>-0.1374471705796191</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1861632400737821</v>
       </c>
       <c r="E99" t="n">
-        <v>1.141925015328308</v>
+        <v>1.139992119847351</v>
       </c>
       <c r="F99" t="n">
-        <v>0.226654932559656</v>
+        <v>0.2241412240229388</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1424147749264441</v>
+        <v>-0.1398790301220287</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1960327494712596</v>
       </c>
       <c r="E100" t="n">
-        <v>1.053699669560283</v>
+        <v>1.051924175991456</v>
       </c>
       <c r="F100" t="n">
-        <v>0.238647384244846</v>
+        <v>0.236124231593401</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1569319532822003</v>
+        <v>-0.1544245408219683</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2055026447730989</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9631117210911857</v>
+        <v>0.9613787260386336</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2330029516758617</v>
+        <v>0.2296786232916746</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1707172127465517</v>
+        <v>-0.1679941596667015</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2194712337756104</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9020271870317487</v>
+        <v>0.9006089958034567</v>
       </c>
       <c r="F102" t="n">
-        <v>0.239144774287177</v>
+        <v>0.2359746997768774</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.196243080836685</v>
+        <v>-0.1932367043150007</v>
       </c>
     </row>
   </sheetData>
